--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1067,9 +1067,6 @@
     <t>guess</t>
   </si>
   <si>
-    <t>h&amp;m</t>
-  </si>
-  <si>
     <t>hazzys</t>
   </si>
   <si>
@@ -2384,6 +2381,10 @@
   </si>
   <si>
     <t>탑텐, 톱텐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2782,8 +2783,8 @@
   <dimension ref="B1:G325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A178" sqref="A178"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2801,67 +2802,67 @@
     <row r="1" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>744</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>752</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -2900,13 +2901,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>319</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -3032,7 +3033,7 @@
         <v>328</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -3214,7 +3215,7 @@
         <v>341</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
@@ -3270,7 +3271,7 @@
         <v>345</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
@@ -3289,16 +3290,16 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>347</v>
+        <v>756</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>30</v>
@@ -3306,13 +3307,13 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>31</v>
@@ -3320,27 +3321,27 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>33</v>
@@ -3348,13 +3349,13 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>34</v>
@@ -3362,13 +3363,13 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>35</v>
@@ -3376,13 +3377,13 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>36</v>
@@ -3390,13 +3391,13 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>37</v>
@@ -3404,44 +3405,44 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>40</v>
@@ -3449,13 +3450,13 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>41</v>
@@ -3463,13 +3464,13 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>42</v>
@@ -3477,27 +3478,27 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>44</v>
@@ -3505,13 +3506,13 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>45</v>
@@ -3519,13 +3520,13 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>46</v>
@@ -3533,13 +3534,13 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>47</v>
@@ -3547,13 +3548,13 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>48</v>
@@ -3561,27 +3562,27 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>50</v>
@@ -3589,13 +3590,13 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>51</v>
@@ -3603,13 +3604,13 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>52</v>
@@ -3617,16 +3618,16 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G59" s="3" t="b">
         <v>1</v>
@@ -3634,30 +3635,30 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>55</v>
@@ -3665,13 +3666,13 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>56</v>
@@ -3679,13 +3680,13 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>57</v>
@@ -3693,27 +3694,27 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>59</v>
@@ -3721,13 +3722,13 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>60</v>
@@ -3735,30 +3736,30 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>62</v>
@@ -3766,13 +3767,13 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>63</v>
@@ -3780,13 +3781,13 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>64</v>
@@ -3794,13 +3795,13 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>65</v>
@@ -3808,44 +3809,44 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>68</v>
@@ -3853,13 +3854,13 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>69</v>
@@ -3867,13 +3868,13 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>70</v>
@@ -3884,13 +3885,13 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>71</v>
@@ -3898,27 +3899,27 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>73</v>
@@ -3926,13 +3927,13 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>74</v>
@@ -3940,13 +3941,13 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>75</v>
@@ -3954,27 +3955,27 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>77</v>
@@ -3982,13 +3983,13 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>78</v>
@@ -3996,13 +3997,13 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>79</v>
@@ -4010,13 +4011,13 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>80</v>
@@ -4024,27 +4025,27 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>82</v>
@@ -4052,13 +4053,13 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>83</v>
@@ -4066,13 +4067,13 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>84</v>
@@ -4080,13 +4081,13 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>85</v>
@@ -4094,13 +4095,13 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>86</v>
@@ -4108,13 +4109,13 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>87</v>
@@ -4122,13 +4123,13 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>88</v>
@@ -4136,13 +4137,13 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>89</v>
@@ -4150,30 +4151,30 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>90</v>
@@ -4181,13 +4182,13 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>91</v>
@@ -4195,13 +4196,13 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>92</v>
@@ -4209,13 +4210,13 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>93</v>
@@ -4223,13 +4224,13 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>94</v>
@@ -4237,27 +4238,27 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>96</v>
@@ -4265,13 +4266,13 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>97</v>
@@ -4279,30 +4280,30 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>99</v>
@@ -4310,13 +4311,13 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>100</v>
@@ -4324,13 +4325,13 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>101</v>
@@ -4338,27 +4339,27 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>103</v>
@@ -4366,13 +4367,13 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>104</v>
@@ -4380,13 +4381,13 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>105</v>
@@ -4394,13 +4395,13 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>106</v>
@@ -4408,13 +4409,13 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>107</v>
@@ -4422,13 +4423,13 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>108</v>
@@ -4436,44 +4437,44 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>111</v>
@@ -4481,13 +4482,13 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>112</v>
@@ -4495,13 +4496,13 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>113</v>
@@ -4509,13 +4510,13 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>114</v>
@@ -4523,13 +4524,13 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>115</v>
@@ -4537,13 +4538,13 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>116</v>
@@ -4551,13 +4552,13 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>117</v>
@@ -4565,13 +4566,13 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>118</v>
@@ -4579,13 +4580,13 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>119</v>
@@ -4593,13 +4594,13 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>120</v>
@@ -4607,13 +4608,13 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>121</v>
@@ -4621,13 +4622,13 @@
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>122</v>
@@ -4635,13 +4636,13 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>123</v>
@@ -4649,13 +4650,13 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>124</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>124</v>
@@ -4663,13 +4664,13 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>125</v>
@@ -4677,13 +4678,13 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>126</v>
@@ -4691,13 +4692,13 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>127</v>
@@ -4705,16 +4706,16 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>128</v>
@@ -4722,13 +4723,13 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>129</v>
@@ -4736,13 +4737,13 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>130</v>
@@ -4750,13 +4751,13 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>131</v>
@@ -4764,13 +4765,13 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>132</v>
@@ -4778,27 +4779,27 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>134</v>
@@ -4806,13 +4807,13 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>135</v>
@@ -4820,13 +4821,13 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>136</v>
@@ -4834,13 +4835,13 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>137</v>
@@ -4848,13 +4849,13 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>138</v>
@@ -4862,13 +4863,13 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>139</v>
@@ -4876,13 +4877,13 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>140</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>140</v>
@@ -4890,13 +4891,13 @@
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>141</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>141</v>
@@ -4904,13 +4905,13 @@
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>142</v>
@@ -4918,13 +4919,13 @@
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>143</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>143</v>
@@ -4932,13 +4933,13 @@
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>144</v>
@@ -4946,30 +4947,30 @@
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C152" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>145</v>
@@ -4977,13 +4978,13 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>146</v>
@@ -4991,13 +4992,13 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>147</v>
@@ -5005,13 +5006,13 @@
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>148</v>
@@ -5019,16 +5020,16 @@
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>149</v>
@@ -5036,13 +5037,13 @@
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>150</v>
@@ -5050,27 +5051,27 @@
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>152</v>
@@ -5078,13 +5079,13 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>153</v>
@@ -5092,13 +5093,13 @@
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>154</v>
@@ -5106,13 +5107,13 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>155</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>155</v>
@@ -5120,13 +5121,13 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>156</v>
@@ -5134,13 +5135,13 @@
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>157</v>
@@ -5148,13 +5149,13 @@
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>158</v>
@@ -5162,13 +5163,13 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>159</v>
@@ -5176,13 +5177,13 @@
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>160</v>
@@ -5190,13 +5191,13 @@
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>161</v>
@@ -5204,13 +5205,13 @@
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>162</v>
@@ -5218,13 +5219,13 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>163</v>
@@ -5232,13 +5233,13 @@
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>164</v>
@@ -5246,13 +5247,13 @@
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>165</v>
@@ -5260,13 +5261,13 @@
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>166</v>
@@ -5274,13 +5275,13 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>167</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>167</v>
@@ -5288,27 +5289,27 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>169</v>
@@ -5316,27 +5317,27 @@
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>171</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>171</v>
@@ -5344,13 +5345,13 @@
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>172</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>172</v>
@@ -5358,13 +5359,13 @@
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>173</v>
@@ -5372,13 +5373,13 @@
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>174</v>
@@ -5386,13 +5387,13 @@
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>175</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>175</v>
@@ -5400,13 +5401,13 @@
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>176</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>176</v>
@@ -5414,16 +5415,16 @@
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>177</v>
@@ -5431,13 +5432,13 @@
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>178</v>
@@ -5445,13 +5446,13 @@
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>179</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>179</v>
@@ -5459,13 +5460,13 @@
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>180</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>180</v>
@@ -5473,13 +5474,13 @@
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>181</v>
@@ -5487,13 +5488,13 @@
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>182</v>
@@ -5504,13 +5505,13 @@
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>183</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>183</v>
@@ -5518,13 +5519,13 @@
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>184</v>
@@ -5532,13 +5533,13 @@
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>185</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>185</v>
@@ -5546,13 +5547,13 @@
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>186</v>
@@ -5560,16 +5561,16 @@
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>187</v>
@@ -5577,13 +5578,13 @@
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>188</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>188</v>
@@ -5591,30 +5592,30 @@
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>189</v>
@@ -5622,13 +5623,13 @@
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>190</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>190</v>
@@ -5636,13 +5637,13 @@
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>191</v>
@@ -5650,16 +5651,16 @@
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>192</v>
@@ -5667,13 +5668,13 @@
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>193</v>
@@ -5681,16 +5682,16 @@
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>194</v>
@@ -5698,13 +5699,13 @@
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>195</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>195</v>
@@ -5712,13 +5713,13 @@
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>196</v>
@@ -5726,30 +5727,30 @@
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>197</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>198</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>198</v>
@@ -5757,13 +5758,13 @@
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>199</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>199</v>
@@ -5771,13 +5772,13 @@
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>200</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>200</v>
@@ -5785,13 +5786,13 @@
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>201</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>201</v>
@@ -5799,30 +5800,30 @@
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>202</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>203</v>
@@ -5830,13 +5831,13 @@
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>204</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>204</v>
@@ -5844,27 +5845,27 @@
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>206</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>206</v>
@@ -5872,13 +5873,13 @@
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>207</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>207</v>
@@ -5886,16 +5887,16 @@
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>208</v>
@@ -5903,13 +5904,13 @@
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>209</v>
@@ -5917,13 +5918,13 @@
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>210</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>210</v>
@@ -5931,16 +5932,16 @@
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>211</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>211</v>
@@ -5948,13 +5949,13 @@
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>212</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>212</v>
@@ -5962,13 +5963,13 @@
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>213</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>213</v>
@@ -5976,13 +5977,13 @@
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>214</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>214</v>
@@ -5990,13 +5991,13 @@
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>215</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>215</v>
@@ -6004,13 +6005,13 @@
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>216</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>216</v>
@@ -6018,13 +6019,13 @@
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>217</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>217</v>
@@ -6032,13 +6033,13 @@
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>218</v>
@@ -6046,13 +6047,13 @@
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>219</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>219</v>
@@ -6060,13 +6061,13 @@
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>220</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>220</v>
@@ -6074,13 +6075,13 @@
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>221</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>221</v>
@@ -6088,13 +6089,13 @@
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>222</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>222</v>
@@ -6102,13 +6103,13 @@
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>223</v>
@@ -6116,13 +6117,13 @@
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>224</v>
@@ -6130,13 +6131,13 @@
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>225</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>225</v>
@@ -6144,13 +6145,13 @@
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>226</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>226</v>
@@ -6158,13 +6159,13 @@
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>227</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>227</v>
@@ -6172,13 +6173,13 @@
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>228</v>
@@ -6186,13 +6187,13 @@
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>229</v>
@@ -6200,13 +6201,13 @@
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>230</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>230</v>
@@ -6214,16 +6215,16 @@
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>231</v>
@@ -6231,16 +6232,16 @@
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>232</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>232</v>
@@ -6248,13 +6249,13 @@
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>233</v>
@@ -6262,13 +6263,13 @@
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>234</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>234</v>
@@ -6276,13 +6277,13 @@
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>235</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>235</v>
@@ -6290,13 +6291,13 @@
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>236</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>236</v>
@@ -6304,16 +6305,16 @@
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>237</v>
@@ -6321,16 +6322,16 @@
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>238</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>238</v>
@@ -6338,16 +6339,16 @@
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>239</v>
@@ -6355,13 +6356,13 @@
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>240</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>240</v>
@@ -6369,13 +6370,13 @@
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>241</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>241</v>
@@ -6383,13 +6384,13 @@
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>242</v>
@@ -6397,13 +6398,13 @@
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>243</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>243</v>
@@ -6411,13 +6412,13 @@
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>244</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>244</v>
@@ -6425,13 +6426,13 @@
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>245</v>
@@ -6439,13 +6440,13 @@
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>246</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>246</v>
@@ -6453,13 +6454,13 @@
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>247</v>
@@ -6467,13 +6468,13 @@
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>248</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>248</v>
@@ -6481,13 +6482,13 @@
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>249</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>249</v>
@@ -6495,16 +6496,16 @@
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>250</v>
@@ -6512,13 +6513,13 @@
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>251</v>
@@ -6526,13 +6527,13 @@
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>252</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>252</v>
@@ -6540,27 +6541,27 @@
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>253</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>254</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>254</v>
@@ -6568,13 +6569,13 @@
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>255</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>255</v>
@@ -6582,13 +6583,13 @@
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>256</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>256</v>
@@ -6596,13 +6597,13 @@
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>257</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>257</v>
@@ -6610,13 +6611,13 @@
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>258</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>258</v>
@@ -6624,13 +6625,13 @@
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>259</v>
@@ -6638,16 +6639,16 @@
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>260</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>260</v>
@@ -6655,13 +6656,13 @@
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>261</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>261</v>
@@ -6669,13 +6670,13 @@
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>262</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>262</v>
@@ -6683,13 +6684,13 @@
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>263</v>
@@ -6697,13 +6698,13 @@
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>264</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>264</v>
@@ -6711,13 +6712,13 @@
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>265</v>
@@ -6725,16 +6726,16 @@
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>266</v>
@@ -6742,13 +6743,13 @@
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>267</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>267</v>
@@ -6756,13 +6757,13 @@
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>268</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>268</v>
@@ -6770,13 +6771,13 @@
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>269</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>269</v>
@@ -6784,13 +6785,13 @@
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>270</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>270</v>
@@ -6798,13 +6799,13 @@
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>271</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>271</v>
@@ -6812,13 +6813,13 @@
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>272</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>272</v>
@@ -6826,13 +6827,13 @@
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>273</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>273</v>
@@ -6840,13 +6841,13 @@
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>274</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>274</v>
@@ -6854,13 +6855,13 @@
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>275</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>275</v>
@@ -6868,13 +6869,13 @@
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>276</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>276</v>
@@ -6882,13 +6883,13 @@
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>277</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>277</v>
@@ -6896,13 +6897,13 @@
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>278</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>278</v>
@@ -6910,13 +6911,13 @@
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>279</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F288" s="3" t="s">
         <v>279</v>
@@ -6924,13 +6925,13 @@
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>280</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>280</v>
@@ -6938,13 +6939,13 @@
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>281</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>281</v>
@@ -6952,13 +6953,13 @@
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>282</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>282</v>
@@ -6966,13 +6967,13 @@
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>283</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>283</v>
@@ -6980,13 +6981,13 @@
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>284</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>284</v>
@@ -6994,13 +6995,13 @@
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>285</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>285</v>
@@ -7008,13 +7009,13 @@
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>286</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>286</v>
@@ -7022,16 +7023,16 @@
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>287</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>287</v>
@@ -7039,13 +7040,13 @@
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>288</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F297" s="3" t="s">
         <v>288</v>
@@ -7053,13 +7054,13 @@
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>289</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F298" s="3" t="s">
         <v>289</v>
@@ -7067,13 +7068,13 @@
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>290</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>290</v>
@@ -7081,13 +7082,13 @@
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>291</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>291</v>
@@ -7095,13 +7096,13 @@
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>292</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>292</v>
@@ -7109,13 +7110,13 @@
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>293</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>293</v>
@@ -7123,13 +7124,13 @@
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>294</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>294</v>
@@ -7137,13 +7138,13 @@
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>295</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>295</v>
@@ -7151,13 +7152,13 @@
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>296</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>296</v>
@@ -7165,13 +7166,13 @@
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>297</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>297</v>
@@ -7179,16 +7180,16 @@
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B307" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>298</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>298</v>
@@ -7196,16 +7197,16 @@
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>299</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F308" s="3" t="s">
         <v>299</v>
@@ -7213,16 +7214,16 @@
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B309" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>300</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>300</v>
@@ -7230,13 +7231,13 @@
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B310" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>301</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>301</v>
@@ -7244,13 +7245,13 @@
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B311" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>302</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>302</v>
@@ -7258,13 +7259,13 @@
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B312" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>303</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F312" s="3" t="s">
         <v>303</v>
@@ -7272,13 +7273,13 @@
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B313" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>304</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>304</v>
@@ -7286,13 +7287,13 @@
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B314" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>305</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>305</v>
@@ -7300,13 +7301,13 @@
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B315" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>306</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F315" s="3" t="s">
         <v>306</v>
@@ -7314,13 +7315,13 @@
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B316" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>307</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>307</v>
@@ -7328,13 +7329,13 @@
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>308</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>308</v>
@@ -7342,13 +7343,13 @@
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>309</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>309</v>
@@ -7356,16 +7357,16 @@
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>310</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>310</v>
@@ -7373,16 +7374,16 @@
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>311</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>311</v>
@@ -7390,13 +7391,13 @@
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>312</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>312</v>
@@ -7404,13 +7405,13 @@
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>313</v>
@@ -7418,30 +7419,30 @@
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>314</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>315</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>315</v>
@@ -7449,16 +7450,16 @@
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>316</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>316</v>
@@ -7467,5 +7468,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>